--- a/result_links.xlsx
+++ b/result_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,6 +2269,57 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Какую выбрать кошку</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1qpgOOLqcwG-Uz7gOBdIT-fXWX6gMx35zIpiezEAnbgI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Какую выбрать собаку</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1TqSDciPJ3Hl2HbIPsi7BiaZZBVu6cNHENiAWKnNE2jU</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Какую выбрать кошку</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/17ssK3b-YjsZikL6wzVd37eBrXqMrFuntqqPZ1GSuOsQ</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result_links.xlsx
+++ b/result_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,6 +2320,40 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Какую выбрать кошку</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1Ce8PvBS3tv5Dnkj8_aa37WwkgZsP2xjI0d33LZVzMX4</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Какую породу кошки выбрать</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1poffe_yQypO6wQacAyiGODif0GVv9IikuzSs6Vub0Xc</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result_links.xlsx
+++ b/result_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2354,6 +2354,91 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Какую породу кошки выбрать</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/12UarBd054sjuDDxGEfj-bT8kSfpaaCrVKLrTW5ldmgg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Какую породу кошки выбрать</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1SKarMjRoZaj1cqCo8tKk1Ug38b6RxAC9fsEB_1RNEjY</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Какую породу кошки выбрать</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/18mc9pT-c0foKlOxUP1d1Jtfz0xWZ8jvy_tGPbVo4nys</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Какую породу кошки выбрать</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1-TWB4NdZea-lmRUzAw8e2iOO-HVPVX_l_kyIhdoEwp4</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Какую породу кошки выбрать</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1g8eStveINM8tpPp7t_L-IoGrzQdxzM199wN7w4Bl8u0</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>06.09.2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
